--- a/tabellen/concept/5.1/lijnweights-concept-5.1.xlsx
+++ b/tabellen/concept/5.1/lijnweights-concept-5.1.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AC7D99F7-FC69-483A-9BD5-F446AB060781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{32AEE767-8A6F-4F60-96D5-C2EBF8F4DBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{180F5ABA-D9A9-4185-B2E6-1E1EBF5F8741}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AE7EE900-C99B-45A3-A0B7-40D1F00E3AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="lijnweights-concept-5.1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'lijnweights-concept-5.1'!$A$1:$G$8</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -948,22 +945,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4EB09E-4EAF-4AE0-B386-6633A0359BB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A33F1DA-F748-48AC-B864-86DF2E4ED2CF}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="68.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1129,7 +1118,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G8" xr:uid="{FB4EB09E-4EAF-4AE0-B386-6633A0359BB6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>